--- a/tp2.xlsx
+++ b/tp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>User should be able to validate that the Account is edited</t>
@@ -165,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -187,11 +190,79 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -199,16 +270,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,9 +292,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +308,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -243,93 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,19 +353,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,163 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,20 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,21 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -601,17 +586,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,151 +620,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -914,9 +917,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K12" totalsRowShown="0">
   <autoFilter ref="A1:K12">
     <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="Step 1"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="11">
@@ -1224,7 +1227,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1365,7 +1368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1389,6 +1392,9 @@
       </c>
       <c r="I7" t="s">
         <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="5:8">
@@ -1413,18 +1419,18 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1433,13 +1439,16 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
       <c r="I10" t="s">
         <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="6:8">
@@ -1447,10 +1456,10 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="6:8">
@@ -1458,10 +1467,10 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/tp2.xlsx
+++ b/tp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -170,8 +170,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -188,6 +188,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -195,6 +202,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -203,23 +217,41 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,60 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -310,14 +288,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,12 +310,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -353,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,17 +547,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,7 +586,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,33 +610,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,159 +630,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,7 +1226,7 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1422,7 +1422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1446,9 +1446,6 @@
       </c>
       <c r="I10" t="s">
         <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="6:8">

--- a/tp2.xlsx
+++ b/tp2.xlsx
@@ -133,6 +133,9 @@
     <t>Rejected</t>
   </si>
   <si>
+    <t>Not a valid tc</t>
+  </si>
+  <si>
     <t>User should be able to validate that the Account is edited</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t>Click on the Account tab,  and select the existing  Account to delete</t>
-  </si>
-  <si>
-    <t>Not a valid tc</t>
   </si>
   <si>
     <t>Click on to the Delete to Delete the Account</t>
@@ -194,8 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,76 +209,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,15 +249,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,17 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +285,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,13 +353,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,91 +473,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,73 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,15 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,15 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,21 +572,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -636,6 +603,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -668,127 +668,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,7 +1362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1386,6 +1386,9 @@
       </c>
       <c r="I7" t="s">
         <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="5:8">
@@ -1410,18 +1413,18 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1430,16 +1433,13 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
       <c r="I10" t="s">
         <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="6:8">

--- a/tp2.xlsx
+++ b/tp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -194,31 +194,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,17 +247,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,11 +279,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,38 +323,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +353,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,169 +503,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,21 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,6 +596,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -647,148 +647,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,7 +1416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1440,6 +1440,9 @@
       </c>
       <c r="I10" t="s">
         <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="6:8">
